--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnReCheck.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/InnReCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D169793-45E8-4B9A-9230-AD14B99A21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9A8C72-9D00-4938-B6F7-4B245F520013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -281,14 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:免覆審 2:要覆審 3:不覆審 ; 空白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:免追蹤 2:要追蹤 3:不追蹤 ; 空白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Stored Procedure Name</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -353,10 +345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y-指定覆審 null-非指定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FollowMark=2時輸入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,14 +369,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ConditionCode = ,AND YearMonth=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode,CustNo,FacmNo asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCode = ,AND YearMonth= ,AND CustNo=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>01-個金3000萬以上
-02-企金3000萬以上
-03-個金2000萬以上小於3000萬、指定複審&lt;&gt;01,02,05,06
-04-個金100萬以上小於2000萬(新件)
-05-企金未達3000萬
-06-土地追蹤
-99</t>
+      <t>01:個金3000萬以上
+02:企金3000萬以上
+03:個金2000萬以上小於3000萬、指定複審&lt;&gt;01,02,05,06
+04:個金100萬以上小於2000萬(新件)
+05:企金未達3000萬
+06:土地追蹤
+99:</t>
     </r>
     <r>
       <rPr>
@@ -397,21 +397,28 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>-指定複審名單</t>
+      <t>指定複審名單</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ConditionCode = ,AND YearMonth=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionCode,CustNo,FacmNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionCode = ,AND YearMonth= ,AND CustNo=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1:免覆審
+2:要覆審
+3:不覆審
+空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:免追蹤
+2:要追蹤
+3:不追蹤
+空白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:指定覆審
+(null):非指定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1075,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1276,7 +1283,7 @@
       </c>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>5</v>
       </c>
@@ -1293,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>6</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1333,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1473,25 +1480,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="36" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="34">
         <v>2</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="33" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1516,10 +1523,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>31</v>
@@ -1529,7 +1536,7 @@
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1559,7 +1566,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="29">
         <v>6</v>
@@ -1617,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1654,46 +1661,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1720,24 +1727,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
